--- a/data/trans_camb/P1429-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1429-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-1.282955666753166</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-0.6221750462027029</v>
+        <v>-0.6221750462027033</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-1.020525348864763</v>
@@ -664,7 +664,7 @@
         <v>-0.7009738715420167</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.2253200107405967</v>
+        <v>-0.2253200107405963</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.997037937474021</v>
+        <v>-2.070096673777339</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.834873123796258</v>
+        <v>-1.698423990317308</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.526926559472257</v>
+        <v>-1.606324415132413</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.332864268139956</v>
+        <v>-4.258340364106649</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.976821149121303</v>
+        <v>-4.098749592856206</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.253990621346035</v>
+        <v>-3.335946520672965</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.257530411065173</v>
+        <v>-2.31171991744788</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.02595789065639</v>
+        <v>-1.943014213884058</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.438497504936619</v>
+        <v>-1.392807945205871</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.114202180070913</v>
+        <v>0.1113066866134897</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.46335878855609</v>
+        <v>0.6640936270559276</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.729517505870661</v>
+        <v>0.7307363695537528</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.070434017179413</v>
+        <v>1.133678783424588</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.241159065054853</v>
+        <v>1.063146831746736</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.452915602459161</v>
+        <v>1.411917118996595</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1391233420365826</v>
+        <v>0.1288376244410481</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5033591098810913</v>
+        <v>0.4474491957028888</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8723649638106932</v>
+        <v>0.7934107901198726</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.3702564358370458</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.1795575022921528</v>
+        <v>-0.1795575022921529</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.5298678824440541</v>
@@ -769,7 +769,7 @@
         <v>-0.3639532730624988</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.1169886050319096</v>
+        <v>-0.1169886050319094</v>
       </c>
     </row>
     <row r="8">
@@ -781,26 +781,24 @@
       </c>
       <c r="C8" s="6" t="inlineStr"/>
       <c r="D8" s="6" t="inlineStr"/>
-      <c r="E8" s="6" t="n">
-        <v>-0.9163286693742509</v>
-      </c>
+      <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>-0.8802927771043676</v>
+        <v>-0.8734183344538999</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7909537162927346</v>
+        <v>-0.7946715004728502</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5981203990520655</v>
+        <v>-0.608637924576238</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.8605534506318324</v>
+        <v>-0.8602386196142909</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7341082756023887</v>
+        <v>-0.7330723581820408</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.5028129681133353</v>
+        <v>-0.5187087012748366</v>
       </c>
     </row>
     <row r="9">
@@ -812,26 +810,24 @@
       </c>
       <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="inlineStr"/>
-      <c r="E9" s="6" t="n">
-        <v>3.197877570686786</v>
-      </c>
+      <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>0.7407928614760058</v>
+        <v>0.7618954637025926</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6751831434289267</v>
+        <v>0.6188191364982</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9041417862207078</v>
+        <v>0.7408293450776092</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2355358872705871</v>
+        <v>0.2446058385136787</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5394186175472183</v>
+        <v>0.4278022372834359</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.8098397270952331</v>
+        <v>0.6501101614340515</v>
       </c>
     </row>
     <row r="10">
@@ -881,31 +877,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.111710341858887</v>
+        <v>-2.266043772917284</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.13000898080597</v>
+        <v>-2.265158151179492</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.022938665014999</v>
+        <v>-1.941423048869451</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.014051211926387</v>
+        <v>-3.000815465388118</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.87484410298026</v>
+        <v>-2.761704035939298</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.9714112468849617</v>
+        <v>-1.03078375157153</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.917393868598764</v>
+        <v>-1.936311000723786</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.83847690582497</v>
+        <v>-1.77828869446547</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.033259673458917</v>
+        <v>-1.048184150171687</v>
       </c>
     </row>
     <row r="12">
@@ -916,31 +912,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.2251348577420306</v>
+        <v>-0.2235493487713923</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.2257535403198639</v>
+        <v>-0.2218537025999737</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03201617715047802</v>
+        <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.040554672346095</v>
+        <v>0.8735828269015096</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.482774324618892</v>
+        <v>1.43820364120249</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.981641377759155</v>
+        <v>2.93821471488326</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0832131845790967</v>
+        <v>0.07739973778183488</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2928767164154992</v>
+        <v>0.3432148100853791</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.130927886037713</v>
+        <v>1.164821140163743</v>
       </c>
     </row>
     <row r="13">
@@ -966,7 +962,7 @@
         <v>-0.3288050458694561</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5282481611233019</v>
+        <v>0.5282481611233022</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.6168294390874967</v>
@@ -989,22 +985,22 @@
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>-0.8815125187224114</v>
+        <v>-0.8844054004253162</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8981598782954556</v>
+        <v>-0.8751713193280231</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3202657657606892</v>
+        <v>-0.3748725701384293</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.9064680665266108</v>
+        <v>-0.9147367230530106</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8821840703817695</v>
+        <v>-0.90377571360499</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4943928424822759</v>
+        <v>-0.5065047628728276</v>
       </c>
     </row>
     <row r="15">
@@ -1018,22 +1014,22 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>1.750034840644693</v>
+        <v>1.219060196520529</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.867468534462466</v>
+        <v>1.659904196046206</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.031613488835093</v>
+        <v>2.788450349357976</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3828431785846277</v>
+        <v>0.2065270344545454</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.047421720808203</v>
+        <v>0.756768177517566</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.521326299609275</v>
+        <v>1.52303566630971</v>
       </c>
     </row>
     <row r="16">
@@ -1083,31 +1079,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.784270066387897</v>
+        <v>-1.966875268875797</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.578191479747039</v>
+        <v>-1.651712727492588</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.24392436983038</v>
+        <v>-1.184690636652947</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.222248292773117</v>
+        <v>-6.276384192223405</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.732259344619529</v>
+        <v>-3.836062462562199</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.17959398607282</v>
+        <v>-1.656211345127602</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.13941801426993</v>
+        <v>-2.083266389690888</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.449114095305254</v>
+        <v>-1.434481062000035</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.4672812307953071</v>
+        <v>-0.3831468900717617</v>
       </c>
     </row>
     <row r="18">
@@ -1118,31 +1114,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5614548944351263</v>
+        <v>0.4465865188231425</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7580517188032052</v>
+        <v>0.7480290295977874</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.294481265600929</v>
+        <v>1.257645565636293</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.415690017228841</v>
+        <v>1.635912499954901</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.978693903212053</v>
+        <v>6.698569708744144</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.509716545250294</v>
+        <v>8.32828385676199</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4433009660487708</v>
+        <v>0.4773596061602523</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.609468915003639</v>
+        <v>1.596159889081899</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.939172101226222</v>
+        <v>3.11918260647549</v>
       </c>
     </row>
     <row r="19">
@@ -1192,25 +1188,25 @@
         <v>-1</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.826819288996273</v>
+        <v>-0.7633657180377917</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.8651968714563133</v>
+        <v>-0.859746373709358</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6544819252555456</v>
+        <v>-0.6504841534459657</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2298065779174846</v>
+        <v>-0.3484973130608429</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7928640840385666</v>
+        <v>-0.8393553568657333</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6185413863744261</v>
+        <v>-0.5830239637511404</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1882647511490254</v>
+        <v>-0.1791660324754331</v>
       </c>
     </row>
     <row r="21">
@@ -1222,28 +1218,28 @@
       </c>
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="n">
-        <v>2.68384878263778</v>
+        <v>2.328145983893812</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.945704356887005</v>
+        <v>3.596950787479898</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7141400093317254</v>
+        <v>0.9815584141149288</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.11315411400432</v>
+        <v>3.223013653152659</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.882979947004108</v>
+        <v>3.693039619901105</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7178886244890375</v>
+        <v>0.545866719688745</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.562312121475971</v>
+        <v>1.324482475892551</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.526887595303913</v>
+        <v>2.543913979687201</v>
       </c>
     </row>
     <row r="22">
@@ -1264,7 +1260,7 @@
         <v>-1.214825198606569</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.04245985028292366</v>
+        <v>0.04245985028292383</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-1.803974879348315</v>
@@ -1273,7 +1269,7 @@
         <v>-1.371214425294162</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.1993557285636986</v>
+        <v>-0.1993557285636993</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-1.38640415798488</v>
@@ -1293,31 +1289,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.930633449345574</v>
+        <v>-1.942869542693766</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.957460078718288</v>
+        <v>-1.956708929934278</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.8979667476326607</v>
+        <v>-0.8219061368828646</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.434617045991913</v>
+        <v>-3.607496010079197</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.931905110589966</v>
+        <v>-3.157359140633803</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.744499698704684</v>
+        <v>-1.959792696837941</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.13025764916161</v>
+        <v>-2.197043862425417</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.957877396224306</v>
+        <v>-1.980747123576415</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.894573172334257</v>
+        <v>-0.775014148396764</v>
       </c>
     </row>
     <row r="24">
@@ -1328,31 +1324,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.5669258711250379</v>
+        <v>-0.5915380814208681</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.6226033182229751</v>
+        <v>-0.5895659690357726</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.315422408158832</v>
+        <v>1.325658706312079</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.1847968841714827</v>
+        <v>-0.2517940297724005</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1939375499476455</v>
+        <v>0.3784415251803057</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.335492145576553</v>
+        <v>1.358578498697688</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.6271324832077084</v>
+        <v>-0.6672072685760509</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.4225806773505043</v>
+        <v>-0.4312136647234273</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.000473105184396</v>
+        <v>1.018662310691687</v>
       </c>
     </row>
     <row r="25">
@@ -1369,7 +1365,7 @@
         <v>-0.8738948482114756</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.03054385475427929</v>
+        <v>0.03054385475427942</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.5253688827335637</v>
@@ -1378,7 +1374,7 @@
         <v>-0.3993367085384147</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.05805806809232373</v>
+        <v>-0.05805806809232394</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.6485509463516205</v>
@@ -1404,25 +1400,25 @@
         <v>-1</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5014321464528742</v>
+        <v>-0.4773175457617392</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.7618659881634429</v>
+        <v>-0.7771029589207441</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6717690430009537</v>
+        <v>-0.6928818338581675</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3958749677750993</v>
+        <v>-0.4081141529080237</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.8117381381257026</v>
+        <v>-0.814983919201872</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.753097110844714</v>
+        <v>-0.7498909323404663</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3348447200215524</v>
+        <v>-0.2999645097445226</v>
       </c>
     </row>
     <row r="27">
@@ -1433,31 +1429,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.4524942245137299</v>
+        <v>-0.4285564763544245</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.4196978939529955</v>
+        <v>-0.3976761100156927</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.488548885540261</v>
+        <v>1.598762792219322</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.0339647173804441</v>
+        <v>-0.05587742073336933</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1092121251948267</v>
+        <v>0.2014206218771097</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5648202257185815</v>
+        <v>0.5557029625532172</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.3475531071831433</v>
+        <v>-0.3554396495719583</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.2355966651082855</v>
+        <v>-0.1967273848310852</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6139949354611841</v>
+        <v>0.5969208738906323</v>
       </c>
     </row>
     <row r="28">
@@ -1507,31 +1503,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.637853295558998</v>
+        <v>-2.6454960080831</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.104109904257969</v>
+        <v>-1.940574729480153</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.328778551478182</v>
+        <v>-2.253540962061116</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.5611704082851715</v>
+        <v>-0.4901869491151635</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.969789522956546</v>
+        <v>-2.904235247676549</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.3336246538373456</v>
+        <v>0.0896426066829183</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.8640314746998057</v>
+        <v>-0.819401596915339</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.219583467868028</v>
+        <v>-2.311579873445159</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.272224277936414</v>
+        <v>-0.3949976255077411</v>
       </c>
     </row>
     <row r="30">
@@ -1542,31 +1538,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.06628562868148601</v>
+        <v>-0.06824554256904053</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.5492068557844677</v>
+        <v>0.708056749951961</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2336006491871068</v>
+        <v>0.3072205361232805</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.152902857567736</v>
+        <v>4.303833708145633</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.9577834418447898</v>
+        <v>1.333076325773975</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.331451570184489</v>
+        <v>4.438709855391535</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.122019588277745</v>
+        <v>2.125488920144374</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.4179324499794078</v>
+        <v>0.2717464550907107</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.387599109321112</v>
+        <v>2.272759164819483</v>
       </c>
     </row>
     <row r="31">
@@ -1613,26 +1609,28 @@
       </c>
       <c r="C32" s="6" t="inlineStr"/>
       <c r="D32" s="6" t="n">
-        <v>-0.923683399199095</v>
-      </c>
-      <c r="E32" s="6" t="inlineStr"/>
+        <v>-0.8953266481002261</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.9534348225719874</v>
+      </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1093125640974807</v>
+        <v>-0.1214397420001416</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.605451977536691</v>
+        <v>-0.5944649409772038</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06282040651374254</v>
+        <v>-0.006823142355417642</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2498394546618975</v>
+        <v>-0.2412841300378248</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.6224056851579536</v>
+        <v>-0.6067179561708852</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.09549924002788422</v>
+        <v>-0.1165844576682961</v>
       </c>
     </row>
     <row r="33">
@@ -1644,26 +1642,28 @@
       </c>
       <c r="C33" s="6" t="inlineStr"/>
       <c r="D33" s="6" t="n">
-        <v>1.991086564698686</v>
-      </c>
-      <c r="E33" s="6" t="inlineStr"/>
+        <v>2.600499793596076</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>1.134948721156263</v>
+      </c>
       <c r="F33" s="6" t="n">
-        <v>1.638702282723853</v>
+        <v>1.747549353758453</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3871798738886175</v>
+        <v>0.5679661467124042</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.733045858340489</v>
+        <v>1.770643853421769</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.05847101615712</v>
+        <v>1.158065502610631</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.219566570765462</v>
+        <v>0.1491295332921953</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.332839239864226</v>
+        <v>1.170879324169407</v>
       </c>
     </row>
     <row r="34">
@@ -1693,7 +1693,7 @@
         <v>-0.2646165164579294</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>0.1822491478574252</v>
+        <v>0.1822491478574238</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>0.3820404719380041</v>
@@ -1702,7 +1702,7 @@
         <v>-0.3095890539094349</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.02948464228183928</v>
+        <v>0.02948464228183859</v>
       </c>
     </row>
     <row r="35">
@@ -1718,22 +1718,22 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.501882827710031</v>
+        <v>-1.408320934365524</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.272839575328025</v>
+        <v>-2.421560599466709</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.711795192824581</v>
+        <v>-1.757893771821331</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.190411733183887</v>
+        <v>-1.184272196022014</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.863434797644886</v>
+        <v>-1.789097128775881</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.406248904103721</v>
+        <v>-1.408989328109308</v>
       </c>
     </row>
     <row r="36">
@@ -1746,25 +1746,25 @@
       <c r="C36" s="5" t="inlineStr"/>
       <c r="D36" s="5" t="inlineStr"/>
       <c r="E36" s="5" t="n">
-        <v>1.164507346289472</v>
+        <v>1.240556642225398</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.542677111213895</v>
+        <v>2.63657524219332</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.667234205528622</v>
+        <v>1.845485169148867</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.078779731170995</v>
+        <v>2.117930114544591</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.052106703187841</v>
+        <v>2.094821487159148</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.404441014747066</v>
+        <v>1.329958522192524</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>1.417834208393712</v>
+        <v>1.484682616988966</v>
       </c>
     </row>
     <row r="37">
@@ -1788,7 +1788,7 @@
         <v>-0.04466070293036347</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0307591346176096</v>
+        <v>0.03075913461760937</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.07987635713621512</v>
@@ -1797,7 +1797,7 @@
         <v>-0.06472834071764488</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.006164597706077387</v>
+        <v>0.006164597706077243</v>
       </c>
     </row>
     <row r="38">
@@ -1811,22 +1811,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>-0.2218377303721574</v>
+        <v>-0.2000101385397476</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3303713682926877</v>
+        <v>-0.346628822545751</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2470568845211452</v>
+        <v>-0.2519151878194539</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.2163715601557624</v>
+        <v>-0.2229141172888472</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.3274389199072247</v>
+        <v>-0.3308749704798133</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.2613239427657915</v>
+        <v>-0.2567346648609721</v>
       </c>
     </row>
     <row r="39">
@@ -1840,22 +1840,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>0.4990713659446912</v>
+        <v>0.5487788059226194</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.341800835670472</v>
+        <v>0.3792557871955515</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4142487526577073</v>
+        <v>0.4188905923922769</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5107962867267616</v>
+        <v>0.502057718404372</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.3739652649058371</v>
+        <v>0.3163331765646602</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.3533945273576751</v>
+        <v>0.3674485176324145</v>
       </c>
     </row>
     <row r="40">
@@ -1876,7 +1876,7 @@
         <v>-0.6866856890453267</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-0.1983946960916335</v>
+        <v>-0.1983946960916333</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-0.2859233325222366</v>
@@ -1885,7 +1885,7 @@
         <v>-0.8706831081196644</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>0.466128507291904</v>
+        <v>0.4661285072919033</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-0.5593135498995909</v>
@@ -1905,31 +1905,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.304288018710111</v>
+        <v>-1.257203172939324</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.135619303227954</v>
+        <v>-1.140105203476687</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.7160959474720209</v>
+        <v>-0.6501528886926516</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.336266623411219</v>
+        <v>-1.170124367062935</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.900503677209558</v>
+        <v>-1.84455901177766</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.4901387264194333</v>
+        <v>-0.4649444542992199</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.152014145222464</v>
+        <v>-1.066712711690837</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.328036729837055</v>
+        <v>-1.288926425602331</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.3954454938494119</v>
+        <v>-0.3801280113030114</v>
       </c>
     </row>
     <row r="42">
@@ -1940,31 +1940,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-0.521434247053707</v>
+        <v>-0.4801968922531696</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-0.3280060397347179</v>
+        <v>-0.3298648507605589</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.2629725832323371</v>
+        <v>0.3029820950977269</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.6370784793791304</v>
+        <v>0.6604626851893557</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.00382718089635065</v>
+        <v>0.04898741746440224</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.275261129103832</v>
+        <v>1.385879043119704</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-0.02933131772494699</v>
+        <v>0.01612201441101858</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-0.2472570127569496</v>
+        <v>-0.2437830247517092</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.6475738928358281</v>
+        <v>0.6693109283741666</v>
       </c>
     </row>
     <row r="43">
@@ -1981,7 +1981,7 @@
         <v>-0.6638622774430577</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.1918006402071988</v>
+        <v>-0.1918006402071986</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.06647917753385557</v>
@@ -1990,7 +1990,7 @@
         <v>-0.2024399212537675</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1083781428975882</v>
+        <v>0.108378142897588</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.207600758973951</v>
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.944336931923602</v>
+        <v>-0.9404634078246221</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.8475538837545431</v>
+        <v>-0.8326450362234864</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.5306997999339277</v>
+        <v>-0.4870967712656597</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.273585270774202</v>
+        <v>-0.2497357483026037</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3890007093361733</v>
+        <v>-0.3936671513584309</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1001875283506457</v>
+        <v>-0.09535948166219026</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.3843755226512335</v>
+        <v>-0.3601195793164156</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.4331152314155159</v>
+        <v>-0.4327644922106709</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.130939266898653</v>
+        <v>-0.1264510538576394</v>
       </c>
     </row>
     <row r="45">
@@ -2045,31 +2045,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.546454106503245</v>
+        <v>-0.4948451021765421</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.3865966604804025</v>
+        <v>-0.3326337622850191</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.3669878066668474</v>
+        <v>0.4011477825436404</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1756636635715056</v>
+        <v>0.1751127308439745</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.002507234796673082</v>
+        <v>0.01654985974090019</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3344720206581694</v>
+        <v>0.3658300174185282</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.01172720004922026</v>
+        <v>0.007731602247572384</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.09344174676389405</v>
+        <v>-0.09977908222595229</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.2699632853243116</v>
+        <v>0.2686621696314679</v>
       </c>
     </row>
     <row r="46">
